--- a/data/trans_bre/P12A1_1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P12A1_1_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,91</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-9,77</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-10,88</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-59,44%</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-59,6%</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-49,62%</t>
+          <t>-62,85%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>32,98%</t>
+          <t>-55,49%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-44,36%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-6,36%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>15,62%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-19,01%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-24,32; 1,48</t>
+          <t>-4,76; 0,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-25,48; -0,15</t>
+          <t>-4,21; 0,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-34,78; 1,13</t>
+          <t>-5,29; 0,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 9,2</t>
+          <t>-1,89; 1,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-97,95; 65,04</t>
+          <t>-1,31; 1,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-89,46; -0,13</t>
+          <t>-2,78; 0,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-85,24; 13,09</t>
+          <t>-100,0; 60,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-51,94; 216,5</t>
+          <t>-89,8; 7,58</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-85,27; 32,38</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-59,59; 130,85</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-56,12; 207,43</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-72,78; 71,18</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,36</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>221,15%</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-6,39%</t>
+          <t>40,78%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>50,29%</t>
+          <t>249,89%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1,59%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>266,08%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>60,77%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-0,02%</t>
         </is>
       </c>
     </row>
@@ -768,40 +860,60 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 8,66</t>
+          <t>-1,16; 1,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,18; 13,67</t>
+          <t>0,04; 2,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 6,61</t>
+          <t>-1,31; 1,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 13,81</t>
+          <t>0,28; 3,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-71,17; 377,58</t>
+          <t>-1,45; 2,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-44,16; —</t>
+          <t>-1,74; 1,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-75,6; 241,03</t>
+          <t>-72,78; 455,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-66,39; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-75,77; 247,66</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-27,01; 1486,38</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -825,35 +937,55 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-16,74</t>
+          <t>-4,06</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-16,39</t>
+          <t>-4,68</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-7,15</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -873,35 +1005,55 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-53,82; 0,0</t>
+          <t>-20,76; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-56,21; 0,0</t>
+          <t>-22,41; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-30,42; 0,0</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,29</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,64</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-7,43</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-37,08%</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-40,68%</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-48,67%</t>
+          <t>-30,56%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>35,05%</t>
+          <t>-40,89%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-48,48%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-9,13%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>22,93%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-15,84%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,65; 2,2</t>
+          <t>-2,11; 0,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,3; 1,59</t>
+          <t>-2,47; 0,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,31; 0,61</t>
+          <t>-3,43; 0,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 7,72</t>
+          <t>-3,41; 1,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-85,44; 56,22</t>
+          <t>-0,92; 1,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-76,43; 32,41</t>
+          <t>-1,87; 0,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-78,51; 9,63</t>
+          <t>-82,68; 87,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-41,57; 197,47</t>
+          <t>-75,42; 44,17</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-78,98; 2,9</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-71,38; 96,96</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-46,27; 176,59</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-62,53; 92,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P12A1_1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P12A1_1_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,261 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,12</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,28</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,22</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,14</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-0,44</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-62,85%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-55,49%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-44,36%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-6,36%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>15,62%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-19,01%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.075680718389605</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-1.322916456993315</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-1.313783736943074</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.1153096498654017</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.2539171998238433</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.3792151091747846</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.6276383604068841</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.5627686526278344</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.4603055384748268</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.05194416403275578</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.156150016478115</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.1681120955276567</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,76; 0,29</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,21; 0,03</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-5,29; 0,38</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-1,89; 1,65</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-1,31; 1,68</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-2,78; 0,91</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 60,01</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-89,8; 7,58</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-85,27; 32,38</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-59,59; 130,85</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-56,12; 207,43</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-72,78; 71,18</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-4.61182058862086</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.400756380918739</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-5.435146730544645</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-1.833561511117854</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-1.310423442928913</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-2.554111916116279</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.9047269758007924</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.8533127657561517</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.5924717424818943</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.5611740966082553</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.7084249834665097</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.2692373798819422</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.02130988043087645</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.358168567705146</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.699565807731862</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>1.675955520612129</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.941371622507874</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.6058487982308514</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.07475565549830857</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.2780660676095347</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.336750345023575</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>2.074332144669619</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.7131858804328973</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,4</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,81</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,54</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-0,0</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>40,78%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>249,89%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>1,59%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>266,08%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>60,77%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-0,02%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,16; 1,61</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,04; 2,11</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,31; 1,12</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,28; 3,76</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-1,45; 2,87</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-1,74; 1,72</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-72,78; 455,88</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-66,39; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-75,77; 247,66</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-27,01; 1486,38</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.5261337712995289</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.9484948589862837</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.06943683657319577</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.844601808085975</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.5384044162396904</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.01101019940230076</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.601205930808089</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>2.485050565943696</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.06417165724271617</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>2.660740797819707</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.6076883904903027</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.01258026643625952</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-4,06</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-4,68</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-7,15</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.8881932714495692</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.03084337867013825</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.264587974833595</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.2880138081373223</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-1.450178687663787</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-1.675007494087528</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.6925144454989164</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.6825980431131464</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.7571117263768244</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.2833159918143135</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-20,76; 0,0</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-22,41; 0,0</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-30,42; 0,0</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1.767977856761355</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.083218359697351</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.212240489926368</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>3.761563341986204</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>2.873677395678576</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>1.832066062612129</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>5.578559711944101</v>
+      </c>
+      <c r="J9" s="6" t="inlineStr"/>
+      <c r="K9" s="6" t="n">
+        <v>2.619290003910316</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>14.5088681099401</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +921,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,38</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,72</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-1,13</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,2</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,33</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-0,31</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-30,56%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-40,89%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-48,48%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-9,13%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>22,93%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-15,84%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-3.32948708059905</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-4.395464137574277</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-7.302434074819224</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="inlineStr"/>
+      <c r="J10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,11; 0,5</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,47; 0,37</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-3,43; 0,05</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-3,41; 1,21</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-0,92; 1,5</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-1,87; 0,93</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-82,68; 87,28</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-75,42; 44,17</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-78,98; 2,9</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-71,38; 96,96</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-46,27; 176,59</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-62,53; 92,26</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="n">
+        <v>-20.1689875999961</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-20.80910190403613</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-30.97881119953443</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
+      <c r="K11" s="6" t="inlineStr"/>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.310787211188536</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.6542925661373548</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-1.117114147363547</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.1948253230008044</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.3323074392332556</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.2632344432350043</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.2654992942332858</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.3893192299609852</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.4788106517401517</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.08750445445030958</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.2292921042039953</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>-0.1369781059206996</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.931025772376898</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.291036962731964</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-3.334465931364861</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-3.513046523051662</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.915219494506523</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-1.756997603804778</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.8141741371568064</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.7435969101833733</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.7888930931775089</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.7150908787252654</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.4627039827066988</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.6035776017817144</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.5294089565808789</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.354396224033846</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.05453478689547837</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.221436847270847</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1.495063397597673</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.9952309607584842</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.006809635261048</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.4919950580702386</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.02928114386410154</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.984090628122812</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>1.765906376320252</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.9871945257201715</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1145,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
